--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value498.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value498.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.200268582070307</v>
+        <v>1.328456044197083</v>
       </c>
       <c r="B1">
-        <v>2.962769969439532</v>
+        <v>3.165414333343506</v>
       </c>
       <c r="C1">
-        <v>3.598543756274026</v>
+        <v>5.379557132720947</v>
       </c>
       <c r="D1">
-        <v>1.309367335294616</v>
+        <v>1.738052368164062</v>
       </c>
       <c r="E1">
-        <v>0.8824705257648857</v>
+        <v>0.9919607043266296</v>
       </c>
     </row>
   </sheetData>
